--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/dy_quintero_uniandes_edu_co/Documents/8VO/ProyectoDeGrado/FakeNewsCorpusSpanish/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/dy_quintero_uniandes_edu_co/Documents/8VO/ProyectoDeGrado/FakeNewsDetectorSpanish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{BB1EA7AD-7383-4306-A186-1CD6C5935E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5AD88587-06D7-456F-A23B-E65B3A830386}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BB1EA7AD-7383-4306-A186-1CD6C5935E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBF3DB75-0FBA-4BFE-85D1-926E81D83C15}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1000">
   <si>
     <t>Id</t>
   </si>
@@ -5732,21 +5732,6 @@
     <t>%PalabrasNegativas</t>
   </si>
   <si>
-    <t>#InconsistencyMistakes</t>
-  </si>
-  <si>
-    <t>#SpellingMistakes</t>
-  </si>
-  <si>
-    <t>#GrammarMistakes</t>
-  </si>
-  <si>
-    <t>#TypographicalMistakes</t>
-  </si>
-  <si>
-    <t>#SpacingMistakes</t>
-  </si>
-  <si>
     <t>#Numeros</t>
   </si>
   <si>
@@ -5775,6 +5760,9 @@
   </si>
   <si>
     <t>#ResultadosGoogleNews</t>
+  </si>
+  <si>
+    <t>#Mistakes</t>
   </si>
 </sst>
 </file>
@@ -6162,10 +6150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC296"/>
+  <dimension ref="A1:Y296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6180,16 +6168,12 @@
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" customWidth="1"/>
-    <col min="19" max="19" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6215,10 +6199,10 @@
         <v>983</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>984</v>
@@ -6239,46 +6223,34 @@
         <v>982</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6301,7 +6273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6324,7 +6296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6347,7 +6319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6370,7 +6342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6393,7 +6365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6416,7 +6388,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6439,7 +6411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6462,7 +6434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6485,7 +6457,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6508,7 +6480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6531,7 +6503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6554,7 +6526,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6577,7 +6549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6600,7 +6572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/dy_quintero_uniandes_edu_co/Documents/8VO/ProyectoDeGrado/FakeNewsDetectorSpanish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BB1EA7AD-7383-4306-A186-1CD6C5935E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBF3DB75-0FBA-4BFE-85D1-926E81D83C15}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{BB1EA7AD-7383-4306-A186-1CD6C5935E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10A86774-1365-46D0-8D96-77BF1FC186AF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6152,8 +6152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6250,7 +6250,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6266,7 +6266,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -6296,7 +6296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6312,14 +6312,14 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
